--- a/Projectboard/Projectboard/bin/Debug/requirements/Projekt-Inventur.xlsx
+++ b/Projectboard/Projectboard/bin/Debug/requirements/Projekt-Inventur.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="32">
   <si>
     <t>Projekt-Name</t>
   </si>
@@ -475,7 +475,7 @@
   <dimension ref="A1:J76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -552,7 +552,7 @@
         <v>41791</v>
       </c>
       <c r="D3" s="5">
-        <v>42379</v>
+        <v>43110</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -597,10 +597,10 @@
         <v>8</v>
       </c>
       <c r="C5" s="5">
-        <v>41456</v>
+        <v>41821</v>
       </c>
       <c r="D5" s="5">
-        <v>41820</v>
+        <v>42551</v>
       </c>
       <c r="E5">
         <v>10</v>
@@ -622,10 +622,10 @@
         <v>9</v>
       </c>
       <c r="C6" s="5">
-        <v>41395</v>
+        <v>41760</v>
       </c>
       <c r="D6" s="5">
-        <v>42228</v>
+        <v>42004</v>
       </c>
       <c r="E6">
         <v>20</v>
@@ -647,10 +647,10 @@
         <v>9</v>
       </c>
       <c r="C7" s="5">
-        <v>41426</v>
+        <v>41791</v>
       </c>
       <c r="D7" s="5">
-        <v>41759</v>
+        <v>43220</v>
       </c>
       <c r="E7">
         <v>50</v>
@@ -672,10 +672,10 @@
         <v>9</v>
       </c>
       <c r="C8" s="5">
-        <v>41456</v>
+        <v>41821</v>
       </c>
       <c r="D8" s="5">
-        <v>41790</v>
+        <v>42886</v>
       </c>
       <c r="E8">
         <v>23</v>
@@ -697,11 +697,9 @@
         <v>9</v>
       </c>
       <c r="C9" s="5">
-        <v>41487</v>
-      </c>
-      <c r="D9" s="5">
-        <v>41568</v>
-      </c>
+        <v>42217</v>
+      </c>
+      <c r="D9" s="5"/>
       <c r="E9">
         <v>25</v>
       </c>
@@ -745,10 +743,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="5">
-        <v>41548</v>
+        <v>41927</v>
       </c>
       <c r="D11" s="5">
-        <v>41882</v>
+        <v>42613</v>
       </c>
       <c r="E11">
         <v>11</v>
@@ -763,314 +761,146 @@
       <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="5">
-        <v>41579</v>
-      </c>
-      <c r="D12" s="5">
-        <v>41912</v>
-      </c>
-      <c r="E12">
-        <v>12</v>
-      </c>
-      <c r="F12" s="2">
-        <v>9</v>
-      </c>
-      <c r="G12" s="2">
-        <v>9</v>
-      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
       <c r="I12" s="4"/>
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="5">
-        <v>41609</v>
-      </c>
-      <c r="D13" s="5">
-        <v>41943</v>
-      </c>
-      <c r="E13">
-        <v>67</v>
-      </c>
-      <c r="F13" s="2">
-        <v>8</v>
-      </c>
-      <c r="G13" s="2">
-        <v>5</v>
-      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
       <c r="I13" s="4"/>
       <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="5">
-        <v>41640</v>
-      </c>
-      <c r="D14" s="5">
-        <v>41973</v>
-      </c>
-      <c r="E14">
-        <v>68</v>
-      </c>
-      <c r="F14" s="2">
-        <v>6</v>
-      </c>
-      <c r="G14" s="2">
-        <v>1</v>
-      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
       <c r="I14" s="4"/>
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="5">
-        <v>41671</v>
-      </c>
-      <c r="D15" s="5">
-        <v>42004</v>
-      </c>
-      <c r="E15">
-        <v>12</v>
-      </c>
-      <c r="F15" s="2">
-        <v>6</v>
-      </c>
-      <c r="G15" s="2">
-        <v>9</v>
-      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
       <c r="I15" s="4"/>
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="5">
-        <v>41395</v>
-      </c>
-      <c r="D16" s="5">
-        <v>43446</v>
-      </c>
-      <c r="E16">
-        <v>69</v>
-      </c>
-      <c r="F16" s="2">
-        <v>7</v>
-      </c>
-      <c r="G16" s="2">
-        <v>3</v>
-      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
       <c r="I16" s="4"/>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="5">
-        <v>41395</v>
-      </c>
-      <c r="D17" s="5">
-        <v>41790</v>
-      </c>
-      <c r="E17">
-        <v>89</v>
-      </c>
-      <c r="F17" s="2">
-        <v>2</v>
-      </c>
-      <c r="G17" s="2">
-        <v>6</v>
-      </c>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
       <c r="I17" s="4"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="5">
-        <v>41518</v>
-      </c>
-      <c r="D18" s="5">
-        <v>41912</v>
-      </c>
-      <c r="E18">
-        <v>100</v>
-      </c>
-      <c r="F18" s="2">
-        <v>5</v>
-      </c>
-      <c r="G18" s="2">
-        <v>4</v>
-      </c>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
       <c r="I18" s="4"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="5">
-        <v>41548</v>
-      </c>
-      <c r="D19" s="5">
-        <v>41943</v>
-      </c>
-      <c r="E19">
-        <v>23</v>
-      </c>
-      <c r="F19" s="2">
-        <v>6</v>
-      </c>
-      <c r="G19" s="2">
-        <v>6</v>
-      </c>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
       <c r="I19" s="4"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="5">
-        <v>41548</v>
-      </c>
-      <c r="D20" s="5">
-        <v>41943</v>
-      </c>
-      <c r="E20">
-        <v>45</v>
-      </c>
-      <c r="F20" s="2">
-        <v>7</v>
-      </c>
-      <c r="G20" s="2">
-        <v>5</v>
-      </c>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
       <c r="I20" s="4"/>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" t="s">
-        <v>2</v>
-      </c>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C21" s="5"/>
-      <c r="D21" s="5">
-        <v>41943</v>
-      </c>
-      <c r="E21">
-        <v>56</v>
-      </c>
-      <c r="F21" s="2">
-        <v>4</v>
-      </c>
-      <c r="G21" s="2">
-        <v>4</v>
-      </c>
+      <c r="D21" s="5"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
       <c r="I21" s="4"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="I22" s="4"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="I23" s="4"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="I24" s="4"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="I25" s="4"/>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="I26" s="4"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="I27" s="4"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="I28" s="4"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="I29" s="4"/>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="I30" s="4"/>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="I31" s="4"/>
       <c r="J31" s="3"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="I32" s="4"/>
